--- a/TestData/Login_data_two.xlsx
+++ b/TestData/Login_data_two.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>admin@klovercloud.com</t>
@@ -30,32 +33,38 @@
     <t>Hello@123</t>
   </si>
   <si>
-    <t>admin@klovercloud.co</t>
+    <t>admin@klovercloud.cm</t>
+  </si>
+  <si>
+    <t>admin@kloverclod.com</t>
+  </si>
+  <si>
+    <t>admin@klovercoud.com</t>
   </si>
   <si>
     <t>Hello@1234</t>
   </si>
   <si>
-    <t>admin@klovercloud</t>
-  </si>
-  <si>
-    <t>asdasdA</t>
-  </si>
-  <si>
-    <t>exp</t>
+    <t>Hello@12</t>
+  </si>
+  <si>
+    <t>Hello1234</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>lst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,22 +73,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,12 +90,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,38 +105,52 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -434,77 +446,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
